--- a/tests/Test Case 1/transactions.xlsx
+++ b/tests/Test Case 1/transactions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer Gareh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomer Gareh\Documents\Code\ComputerArchitecture\mem_simulator\tests\Test Case 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>address</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>L1 block size = 16B</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -743,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>14</v>
@@ -796,7 +804,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
@@ -1147,7 +1155,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B5 B8:B9 C5:F9 B6:B7 D10:F10 G5:N10 G11:N11" numberStoredAsText="1"/>
+    <ignoredError sqref="B5 B8:B9 C5:F7 B6:B7 D10:F10 G5:N10 G11:N11 C8:F9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>